--- a/test_契約管理/已完成/test_契約管理_随時対応_解約（一般解約）.xlsx
+++ b/test_契約管理/已完成/test_契約管理_随時対応_解約（一般解約）.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7657" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7656" uniqueCount="861">
   <si>
     <t>URL:</t>
   </si>
@@ -4116,8 +4116,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EM139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4524,9 +4524,7 @@
       <c r="B55" s="64"/>
     </row>
     <row r="56" spans="1:75" s="63" customFormat="1" ht="14.25">
-      <c r="A56" s="70" t="s">
-        <v>162</v>
-      </c>
+      <c r="A56" s="70"/>
       <c r="B56" s="69" t="s">
         <v>562</v>
       </c>

--- a/test_契約管理/已完成/test_契約管理_随時対応_解約（一般解約）.xlsx
+++ b/test_契約管理/已完成/test_契約管理_随時対応_解約（一般解約）.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" tabRatio="758" firstSheet="3" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="IN_DB_001" sheetId="7" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7656" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7656" uniqueCount="864">
   <si>
     <t>URL:</t>
   </si>
@@ -2189,9 +2189,6 @@
   </si>
   <si>
     <t>32</t>
-  </si>
-  <si>
-    <t>3200</t>
   </si>
   <si>
     <t>2018-08-31</t>
@@ -2887,6 +2884,22 @@
   </si>
   <si>
     <t>9900</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>END</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>3201</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>3205</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>3207</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
 </sst>
@@ -4116,8 +4129,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EM139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4165,7 +4178,7 @@
         <v>162</v>
       </c>
       <c r="B5" s="167" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="6" spans="1:2" s="34" customFormat="1" ht="14.25">
@@ -4173,7 +4186,7 @@
         <v>162</v>
       </c>
       <c r="B6" s="167" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="7" spans="1:2" s="34" customFormat="1" ht="14.25">
@@ -4227,7 +4240,7 @@
         <v>162</v>
       </c>
       <c r="B14" s="142" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15" spans="1:2" s="34" customFormat="1" ht="14.25">
@@ -4259,7 +4272,7 @@
         <v>162</v>
       </c>
       <c r="B18" s="167" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="19" spans="1:6" s="34" customFormat="1" ht="14.25">
@@ -4303,7 +4316,7 @@
         <v>162</v>
       </c>
       <c r="B25" s="167" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="F25" s="54"/>
     </row>
@@ -4312,7 +4325,7 @@
         <v>162</v>
       </c>
       <c r="B26" s="167" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="19" customFormat="1">
@@ -4339,7 +4352,7 @@
         <v>162</v>
       </c>
       <c r="B30" s="167" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="31" spans="1:6" s="34" customFormat="1" ht="14.25">
@@ -10442,7 +10455,7 @@
         <v>85</v>
       </c>
       <c r="E108" s="164" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F108" s="124" t="s">
         <v>166</v>
@@ -11063,12 +11076,12 @@
         <v>238</v>
       </c>
       <c r="B112" s="167" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="113" spans="1:142">
       <c r="B113" s="168" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="114" spans="1:142">
@@ -11091,7 +11104,7 @@
         <v>246</v>
       </c>
       <c r="H114" s="162" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="I114" s="162" t="s">
         <v>89</v>
@@ -11100,18 +11113,18 @@
         <v>429</v>
       </c>
       <c r="K114" s="162" t="s">
+        <v>826</v>
+      </c>
+      <c r="L114" s="162" t="s">
         <v>827</v>
       </c>
-      <c r="L114" s="162" t="s">
+      <c r="M114" s="162" t="s">
         <v>828</v>
-      </c>
-      <c r="M114" s="162" t="s">
-        <v>829</v>
       </c>
     </row>
     <row r="115" spans="1:142">
       <c r="B115" s="164" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C115" s="164" t="s">
         <v>85</v>
@@ -11126,25 +11139,25 @@
         <v>166</v>
       </c>
       <c r="G115" s="164" t="s">
+        <v>831</v>
+      </c>
+      <c r="H115" s="164" t="s">
         <v>832</v>
       </c>
-      <c r="H115" s="164" t="s">
+      <c r="I115" s="164" t="s">
         <v>833</v>
       </c>
-      <c r="I115" s="164" t="s">
+      <c r="J115" s="164" t="s">
+        <v>832</v>
+      </c>
+      <c r="K115" s="164" t="s">
+        <v>835</v>
+      </c>
+      <c r="L115" s="164" t="s">
         <v>834</v>
       </c>
-      <c r="J115" s="164" t="s">
-        <v>833</v>
-      </c>
-      <c r="K115" s="164" t="s">
-        <v>836</v>
-      </c>
-      <c r="L115" s="164" t="s">
-        <v>835</v>
-      </c>
       <c r="M115" s="164" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="116" spans="1:142" s="159" customFormat="1"/>
@@ -12048,10 +12061,10 @@
         <v>217</v>
       </c>
       <c r="H121" s="130" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I121" s="130" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J121" s="31" t="s">
         <v>376</v>
@@ -13834,7 +13847,7 @@
     </row>
     <row r="134" spans="1:36">
       <c r="B134" s="146" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="135" spans="1:36">
@@ -14277,7 +14290,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="166" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C1" s="170"/>
     </row>
@@ -14294,11 +14307,11 @@
         <v>15</v>
       </c>
       <c r="B4" s="159" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C4" s="170"/>
       <c r="H4" s="159" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
@@ -14306,15 +14319,15 @@
         <v>15</v>
       </c>
       <c r="B5" t="s">
+        <v>853</v>
+      </c>
+      <c r="H5" t="s">
         <v>854</v>
-      </c>
-      <c r="H5" t="s">
-        <v>855</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="171" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
   </sheetData>
@@ -14511,7 +14524,7 @@
         <v>674</v>
       </c>
       <c r="J4" s="164" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="K4" s="165" t="s">
         <v>166</v>
@@ -14595,19 +14608,19 @@
         <v>166</v>
       </c>
       <c r="AL4" s="164" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AM4" s="164" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AN4" s="164" t="s">
         <v>659</v>
       </c>
       <c r="AO4" s="164" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AP4" s="164" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AQ4" s="165" t="s">
         <v>166</v>
@@ -15200,10 +15213,10 @@
         <v>166</v>
       </c>
       <c r="G10" s="164" t="s">
+        <v>676</v>
+      </c>
+      <c r="H10" s="164" t="s">
         <v>677</v>
-      </c>
-      <c r="H10" s="164" t="s">
-        <v>678</v>
       </c>
       <c r="I10" s="164" t="s">
         <v>158</v>
@@ -15212,7 +15225,7 @@
         <v>166</v>
       </c>
       <c r="K10" s="164" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="L10" s="164" t="s">
         <v>217</v>
@@ -15370,19 +15383,19 @@
         <v>166</v>
       </c>
       <c r="G11" s="164" t="s">
+        <v>679</v>
+      </c>
+      <c r="H11" s="164" t="s">
         <v>680</v>
       </c>
-      <c r="H11" s="164" t="s">
-        <v>681</v>
-      </c>
       <c r="I11" s="164" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J11" s="165" t="s">
         <v>166</v>
       </c>
       <c r="K11" s="164" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L11" s="164" t="s">
         <v>217</v>
@@ -15540,19 +15553,19 @@
         <v>166</v>
       </c>
       <c r="G12" s="164" t="s">
+        <v>683</v>
+      </c>
+      <c r="H12" s="164" t="s">
         <v>684</v>
       </c>
-      <c r="H12" s="164" t="s">
+      <c r="I12" s="164" t="s">
+        <v>803</v>
+      </c>
+      <c r="J12" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" s="164" t="s">
         <v>685</v>
-      </c>
-      <c r="I12" s="164" t="s">
-        <v>804</v>
-      </c>
-      <c r="J12" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="K12" s="164" t="s">
-        <v>686</v>
       </c>
       <c r="L12" s="164" t="s">
         <v>217</v>
@@ -15710,13 +15723,13 @@
         <v>166</v>
       </c>
       <c r="G13" s="164" t="s">
+        <v>686</v>
+      </c>
+      <c r="H13" s="164" t="s">
         <v>687</v>
       </c>
-      <c r="H13" s="164" t="s">
-        <v>688</v>
-      </c>
       <c r="I13" s="164" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J13" s="165" t="s">
         <v>166</v>
@@ -15880,19 +15893,19 @@
         <v>166</v>
       </c>
       <c r="G14" s="164" t="s">
+        <v>688</v>
+      </c>
+      <c r="H14" s="164" t="s">
         <v>689</v>
       </c>
-      <c r="H14" s="164" t="s">
+      <c r="I14" s="164" t="s">
+        <v>816</v>
+      </c>
+      <c r="J14" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="K14" s="164" t="s">
         <v>690</v>
-      </c>
-      <c r="I14" s="164" t="s">
-        <v>817</v>
-      </c>
-      <c r="J14" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="K14" s="164" t="s">
-        <v>691</v>
       </c>
       <c r="L14" s="164" t="s">
         <v>217</v>
@@ -16050,19 +16063,19 @@
         <v>166</v>
       </c>
       <c r="G15" s="164" t="s">
+        <v>691</v>
+      </c>
+      <c r="H15" s="164" t="s">
         <v>692</v>
       </c>
-      <c r="H15" s="164" t="s">
+      <c r="I15" s="164" t="s">
+        <v>817</v>
+      </c>
+      <c r="J15" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" s="164" t="s">
         <v>693</v>
-      </c>
-      <c r="I15" s="164" t="s">
-        <v>818</v>
-      </c>
-      <c r="J15" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="K15" s="164" t="s">
-        <v>694</v>
       </c>
       <c r="L15" s="164" t="s">
         <v>217</v>
@@ -16676,7 +16689,7 @@
         <v>217</v>
       </c>
       <c r="H20" s="164" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I20" s="165" t="s">
         <v>166</v>
@@ -16916,13 +16929,13 @@
         <v>166</v>
       </c>
       <c r="CJ20" s="164" t="s">
+        <v>695</v>
+      </c>
+      <c r="CK20" s="164" t="s">
         <v>696</v>
       </c>
-      <c r="CK20" s="164" t="s">
+      <c r="CL20" s="164" t="s">
         <v>697</v>
-      </c>
-      <c r="CL20" s="164" t="s">
-        <v>698</v>
       </c>
       <c r="CM20" s="165" t="s">
         <v>166</v>
@@ -16937,7 +16950,7 @@
         <v>166</v>
       </c>
       <c r="CQ20" s="164" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="CR20" s="165" t="s">
         <v>166</v>
@@ -17102,10 +17115,10 @@
         <v>217</v>
       </c>
       <c r="H21" s="164" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I21" s="164" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J21" s="164" t="s">
         <v>376</v>
@@ -17198,7 +17211,7 @@
         <v>166</v>
       </c>
       <c r="AN21" s="164" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AO21" s="174" t="s">
         <v>217</v>
@@ -17342,13 +17355,13 @@
         <v>166</v>
       </c>
       <c r="CJ21" s="164" t="s">
+        <v>699</v>
+      </c>
+      <c r="CK21" s="164" t="s">
+        <v>696</v>
+      </c>
+      <c r="CL21" s="164" t="s">
         <v>700</v>
-      </c>
-      <c r="CK21" s="164" t="s">
-        <v>697</v>
-      </c>
-      <c r="CL21" s="164" t="s">
-        <v>701</v>
       </c>
       <c r="CM21" s="165" t="s">
         <v>166</v>
@@ -17363,7 +17376,7 @@
         <v>166</v>
       </c>
       <c r="CQ21" s="164" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="CR21" s="165" t="s">
         <v>166</v>
@@ -17528,7 +17541,7 @@
         <v>217</v>
       </c>
       <c r="H22" s="164" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I22" s="165" t="s">
         <v>166</v>
@@ -17543,7 +17556,7 @@
         <v>389</v>
       </c>
       <c r="M22" s="164" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N22" s="164" t="s">
         <v>390</v>
@@ -17768,13 +17781,13 @@
         <v>166</v>
       </c>
       <c r="CJ22" s="164" t="s">
+        <v>699</v>
+      </c>
+      <c r="CK22" s="164" t="s">
+        <v>696</v>
+      </c>
+      <c r="CL22" s="164" t="s">
         <v>700</v>
-      </c>
-      <c r="CK22" s="164" t="s">
-        <v>697</v>
-      </c>
-      <c r="CL22" s="164" t="s">
-        <v>701</v>
       </c>
       <c r="CM22" s="165" t="s">
         <v>166</v>
@@ -17789,7 +17802,7 @@
         <v>166</v>
       </c>
       <c r="CQ22" s="164" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="CR22" s="165" t="s">
         <v>166</v>
@@ -17954,7 +17967,7 @@
         <v>218</v>
       </c>
       <c r="H23" s="164" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I23" s="165" t="s">
         <v>166</v>
@@ -17969,7 +17982,7 @@
         <v>381</v>
       </c>
       <c r="M23" s="164" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N23" s="164" t="s">
         <v>244</v>
@@ -18227,7 +18240,7 @@
         <v>166</v>
       </c>
       <c r="CU23" s="164" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="CV23" s="165" t="s">
         <v>166</v>
@@ -18369,7 +18382,7 @@
     </row>
     <row r="26" spans="1:142">
       <c r="B26" s="168" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="27" spans="1:142">
@@ -18452,7 +18465,7 @@
         <v>492</v>
       </c>
       <c r="AB27" s="162" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="28" spans="1:142" s="166" customFormat="1">
@@ -18485,7 +18498,7 @@
         <v>166</v>
       </c>
       <c r="K28" s="165" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L28" s="164" t="s">
         <v>217</v>
@@ -18677,7 +18690,7 @@
         <v>513</v>
       </c>
       <c r="I29" s="177" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J29" s="165" t="s">
         <v>166</v>
@@ -18728,7 +18741,7 @@
         <v>166</v>
       </c>
       <c r="Z29" s="164" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AA29" s="164" t="s">
         <v>217</v>
@@ -18872,7 +18885,7 @@
         <v>513</v>
       </c>
       <c r="H30" s="164" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I30" s="164" t="s">
         <v>514</v>
@@ -19073,7 +19086,7 @@
         <v>513</v>
       </c>
       <c r="I31" s="164" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J31" s="165" t="s">
         <v>166</v>
@@ -19253,12 +19266,12 @@
         <v>238</v>
       </c>
       <c r="B33" s="167" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="B34" s="168" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -19278,10 +19291,10 @@
         <v>18</v>
       </c>
       <c r="G35" s="162" t="s">
+        <v>719</v>
+      </c>
+      <c r="H35" s="162" t="s">
         <v>720</v>
-      </c>
-      <c r="H35" s="162" t="s">
-        <v>721</v>
       </c>
       <c r="I35" s="162" t="s">
         <v>404</v>
@@ -19293,25 +19306,25 @@
         <v>429</v>
       </c>
       <c r="L35" s="162" t="s">
+        <v>721</v>
+      </c>
+      <c r="M35" s="162" t="s">
         <v>722</v>
       </c>
-      <c r="M35" s="162" t="s">
+      <c r="N35" s="162" t="s">
         <v>723</v>
       </c>
-      <c r="N35" s="162" t="s">
+      <c r="O35" s="162" t="s">
         <v>724</v>
-      </c>
-      <c r="O35" s="162" t="s">
-        <v>725</v>
       </c>
       <c r="P35" s="162" t="s">
         <v>462</v>
       </c>
       <c r="Q35" s="162" t="s">
+        <v>725</v>
+      </c>
+      <c r="R35" s="162" t="s">
         <v>726</v>
-      </c>
-      <c r="R35" s="162" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -19331,7 +19344,7 @@
         <v>166</v>
       </c>
       <c r="G36" s="164" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H36" s="164">
         <v>2</v>
@@ -19346,22 +19359,22 @@
         <v>2</v>
       </c>
       <c r="L36" s="164" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M36" s="164" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="N36" s="164" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O36" s="164" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="P36" s="164">
         <v>1</v>
       </c>
       <c r="Q36" s="164" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="R36" s="165" t="s">
         <v>166</v>
@@ -19372,17 +19385,17 @@
         <v>238</v>
       </c>
       <c r="B38" s="167" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="B39" s="168" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="B40" s="163" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C40" s="162" t="s">
         <v>16</v>
@@ -19397,19 +19410,19 @@
         <v>18</v>
       </c>
       <c r="G40" s="162" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H40" s="162" t="s">
         <v>89</v>
       </c>
       <c r="I40" s="162" t="s">
+        <v>842</v>
+      </c>
+      <c r="J40" s="162" t="s">
         <v>843</v>
       </c>
-      <c r="J40" s="162" t="s">
+      <c r="K40" s="162" t="s">
         <v>844</v>
-      </c>
-      <c r="K40" s="162" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -19550,7 +19563,7 @@
     </row>
     <row r="5" spans="2:81" s="131" customFormat="1" ht="12">
       <c r="B5" s="155" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C5" s="173" t="s">
         <v>600</v>
@@ -19571,7 +19584,7 @@
     </row>
     <row r="6" spans="2:81" s="131" customFormat="1" ht="12">
       <c r="B6" s="155" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C6" s="173"/>
       <c r="D6" s="173"/>
@@ -19584,7 +19597,7 @@
     </row>
     <row r="7" spans="2:81" s="131" customFormat="1" ht="12">
       <c r="B7" s="155" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C7" s="173"/>
       <c r="D7" s="173"/>
@@ -19597,17 +19610,17 @@
     </row>
     <row r="8" spans="2:81" s="131" customFormat="1" ht="12">
       <c r="B8" s="155" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C8" s="173"/>
       <c r="D8" s="173" t="s">
+        <v>798</v>
+      </c>
+      <c r="E8" s="173" t="s">
         <v>799</v>
       </c>
-      <c r="E8" s="173" t="s">
+      <c r="F8" s="173" t="s">
         <v>800</v>
-      </c>
-      <c r="F8" s="173" t="s">
-        <v>801</v>
       </c>
       <c r="I8" s="154"/>
       <c r="J8" s="154"/>
@@ -19616,7 +19629,7 @@
     </row>
     <row r="9" spans="2:81" s="131" customFormat="1" ht="12">
       <c r="B9" s="155" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C9" s="173"/>
       <c r="D9" s="173"/>
@@ -19629,7 +19642,7 @@
     </row>
     <row r="10" spans="2:81" s="131" customFormat="1" ht="12">
       <c r="B10" s="155" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C10" s="173"/>
       <c r="D10" s="173"/>
@@ -19642,7 +19655,7 @@
     </row>
     <row r="11" spans="2:81" s="131" customFormat="1">
       <c r="B11" s="155" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C11" s="176"/>
       <c r="D11" s="173"/>
@@ -19655,7 +19668,7 @@
     </row>
     <row r="12" spans="2:81" s="131" customFormat="1">
       <c r="B12" s="155" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C12" s="176"/>
       <c r="D12" s="173"/>
@@ -19668,17 +19681,17 @@
     </row>
     <row r="13" spans="2:81" s="131" customFormat="1" ht="12">
       <c r="B13" s="155" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C13" s="173"/>
       <c r="D13" s="173" t="s">
+        <v>809</v>
+      </c>
+      <c r="E13" s="173" t="s">
         <v>810</v>
       </c>
-      <c r="E13" s="173" t="s">
+      <c r="F13" s="173" t="s">
         <v>811</v>
-      </c>
-      <c r="F13" s="173" t="s">
-        <v>812</v>
       </c>
       <c r="I13" s="154"/>
       <c r="J13" s="154"/>
@@ -19687,7 +19700,7 @@
     </row>
     <row r="14" spans="2:81" s="131" customFormat="1" ht="12">
       <c r="B14" s="155" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C14" s="173"/>
       <c r="D14" s="173"/>
@@ -19700,7 +19713,7 @@
     </row>
     <row r="15" spans="2:81" s="131" customFormat="1" ht="12">
       <c r="B15" s="155" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C15" s="173"/>
       <c r="D15" s="173"/>
@@ -19713,7 +19726,7 @@
     </row>
     <row r="16" spans="2:81" s="131" customFormat="1" ht="12">
       <c r="B16" s="155" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C16" s="173"/>
       <c r="D16" s="173"/>
@@ -19726,17 +19739,17 @@
     </row>
     <row r="17" spans="1:81" s="131" customFormat="1" ht="12">
       <c r="B17" s="155" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C17" s="173"/>
       <c r="D17" s="173" t="s">
+        <v>850</v>
+      </c>
+      <c r="E17" s="173" t="s">
         <v>851</v>
       </c>
-      <c r="E17" s="173" t="s">
+      <c r="F17" s="173" t="s">
         <v>852</v>
-      </c>
-      <c r="F17" s="173" t="s">
-        <v>853</v>
       </c>
       <c r="I17" s="154"/>
       <c r="J17" s="154"/>
@@ -19745,7 +19758,7 @@
     </row>
     <row r="18" spans="1:81" s="131" customFormat="1">
       <c r="B18" s="155" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C18" s="175"/>
       <c r="D18" s="176"/>
@@ -19758,7 +19771,7 @@
     </row>
     <row r="19" spans="1:81" s="131" customFormat="1">
       <c r="B19" s="155" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C19" s="175"/>
       <c r="I19" s="154"/>
@@ -19769,13 +19782,13 @@
     <row r="20" spans="1:81" s="131" customFormat="1">
       <c r="C20" s="175"/>
       <c r="D20" s="173" t="s">
+        <v>856</v>
+      </c>
+      <c r="E20" s="173" t="s">
         <v>857</v>
       </c>
-      <c r="E20" s="173" t="s">
+      <c r="F20" s="173" t="s">
         <v>858</v>
-      </c>
-      <c r="F20" s="173" t="s">
-        <v>859</v>
       </c>
       <c r="I20" s="154"/>
       <c r="J20" s="154"/>
@@ -20441,10 +20454,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20500,7 +20513,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="132" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="C5" s="134"/>
       <c r="D5" s="132"/>
@@ -20508,7 +20521,7 @@
       <c r="F5" s="132"/>
       <c r="G5" s="132"/>
       <c r="H5" s="137" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="14.25">
@@ -20527,28 +20540,18 @@
         <v>662</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="14.25">
-      <c r="A7" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="132" t="s">
-        <v>645</v>
-      </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132" t="s">
-        <v>646</v>
-      </c>
+    <row r="7" spans="1:10" s="159" customFormat="1" ht="14.25">
+      <c r="A7" s="171" t="s">
+        <v>860</v>
+      </c>
+      <c r="C7" s="136"/>
     </row>
     <row r="8" spans="1:10" ht="14.25">
       <c r="A8" s="135" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="132" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C8" s="132"/>
       <c r="D8" s="132"/>
@@ -20556,36 +20559,38 @@
       <c r="F8" s="132"/>
       <c r="G8" s="132"/>
       <c r="H8" s="132" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25">
+      <c r="A9" s="135" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="132" t="s">
+        <v>647</v>
+      </c>
+      <c r="C9" s="132"/>
+      <c r="D9" s="132"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="132" t="s">
         <v>644</v>
       </c>
-      <c r="J8" s="34"/>
-    </row>
-    <row r="9" spans="1:10" s="137" customFormat="1" ht="14.25">
-      <c r="A9" s="151" t="s">
+      <c r="J9" s="34"/>
+    </row>
+    <row r="10" spans="1:10" s="137" customFormat="1" ht="14.25">
+      <c r="A10" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="138" t="s">
+      <c r="B10" s="138" t="s">
+        <v>732</v>
+      </c>
+      <c r="C10" s="139" t="s">
         <v>733</v>
       </c>
-      <c r="C9" s="139" t="s">
+      <c r="D10" s="140" t="s">
         <v>734</v>
-      </c>
-      <c r="D9" s="140" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="132" customFormat="1" ht="14.25">
-      <c r="A10" s="135" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>649</v>
-      </c>
-      <c r="C10" s="139" t="s">
-        <v>744</v>
-      </c>
-      <c r="D10" s="99" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="132" customFormat="1" ht="14.25">
@@ -20593,13 +20598,13 @@
         <v>1</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>652</v>
-      </c>
-      <c r="C11" s="98" t="s">
-        <v>651</v>
+        <v>649</v>
+      </c>
+      <c r="C11" s="139" t="s">
+        <v>743</v>
       </c>
       <c r="D11" s="99" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="12" spans="1:10" s="132" customFormat="1" ht="14.25">
@@ -20607,13 +20612,13 @@
         <v>1</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C12" s="98" t="s">
         <v>651</v>
       </c>
       <c r="D12" s="99" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
     </row>
     <row r="13" spans="1:10" s="132" customFormat="1" ht="14.25">
@@ -20621,124 +20626,122 @@
         <v>1</v>
       </c>
       <c r="B13" s="41" t="s">
+        <v>653</v>
+      </c>
+      <c r="C13" s="98" t="s">
+        <v>651</v>
+      </c>
+      <c r="D13" s="99" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="132" customFormat="1" ht="14.25">
+      <c r="A14" s="135" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="41" t="s">
         <v>655</v>
       </c>
-      <c r="C13" s="98" t="s">
+      <c r="C14" s="98" t="s">
         <v>663</v>
       </c>
-      <c r="D13" s="99" t="s">
+      <c r="D14" s="99" t="s">
         <v>658</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="152" customFormat="1" ht="14.25">
-      <c r="A14" s="151" t="s">
+    <row r="15" spans="1:10" s="152" customFormat="1" ht="14.25">
+      <c r="A15" s="151" t="s">
+        <v>782</v>
+      </c>
+      <c r="B15" s="156" t="s">
         <v>783</v>
       </c>
-      <c r="B14" s="156" t="s">
-        <v>784</v>
-      </c>
-      <c r="C14" s="157"/>
-      <c r="D14" s="158"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.25">
-      <c r="A15" s="135" t="s">
+      <c r="C15" s="157"/>
+      <c r="D15" s="158"/>
+    </row>
+    <row r="16" spans="1:10" ht="14.25">
+      <c r="A16" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>656</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H16" t="s">
         <v>657</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.25">
-      <c r="A17" s="135" t="s">
+    <row r="18" spans="1:8" ht="14.25">
+      <c r="A18" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>423</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="132" customFormat="1" ht="14.25">
-      <c r="A18" s="135" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" s="41" t="s">
-        <v>660</v>
-      </c>
-      <c r="C18" s="98" t="s">
-        <v>661</v>
-      </c>
-      <c r="D18" s="140" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="132" customFormat="1" ht="14.25">
       <c r="A19" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="132" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="C19" s="98" t="s">
+        <v>661</v>
+      </c>
+      <c r="D19" s="140" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="132" customFormat="1" ht="14.25">
+      <c r="A20" s="135"/>
+      <c r="B20" s="132" t="s">
         <v>423</v>
       </c>
-      <c r="H19" s="132">
+      <c r="H20" s="132">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.25">
-      <c r="A20" s="135" t="s">
+    <row r="21" spans="1:8" ht="14.25">
+      <c r="A21" s="135" t="s">
         <v>664</v>
       </c>
-      <c r="B20" s="152" t="s">
-        <v>785</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" s="132" customFormat="1" ht="14.25">
-      <c r="A21" s="151" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="138" t="s">
-        <v>712</v>
-      </c>
-      <c r="C21" s="139" t="s">
-        <v>711</v>
-      </c>
-      <c r="D21" s="140" t="s">
-        <v>713</v>
-      </c>
-      <c r="E21" s="137"/>
-      <c r="F21" s="137"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="137"/>
-    </row>
-    <row r="22" spans="1:8" s="137" customFormat="1" ht="14.25">
+      <c r="B21" s="152" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" s="132" customFormat="1" ht="14.25">
       <c r="A22" s="151" t="s">
         <v>1</v>
       </c>
       <c r="B22" s="138" t="s">
-        <v>738</v>
+        <v>711</v>
       </c>
       <c r="C22" s="139" t="s">
-        <v>745</v>
+        <v>710</v>
       </c>
       <c r="D22" s="140" t="s">
-        <v>739</v>
-      </c>
+        <v>712</v>
+      </c>
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
     </row>
     <row r="23" spans="1:8" s="137" customFormat="1" ht="14.25">
       <c r="A23" s="151" t="s">
         <v>1</v>
       </c>
       <c r="B23" s="138" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="C23" s="139" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D23" s="140" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="24" spans="1:8" s="137" customFormat="1" ht="14.25">
@@ -20746,61 +20749,75 @@
         <v>1</v>
       </c>
       <c r="B24" s="138" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="C24" s="139" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="D24" s="140" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" s="132" customFormat="1" ht="14.25">
-      <c r="A25" s="135" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" s="137" customFormat="1" ht="14.25">
+      <c r="A25" s="151" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="138" t="s">
+        <v>742</v>
+      </c>
+      <c r="C25" s="139" t="s">
+        <v>744</v>
+      </c>
+      <c r="D25" s="140" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" s="132" customFormat="1" ht="14.25">
+      <c r="A26" s="135" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="41" t="s">
         <v>666</v>
       </c>
-      <c r="C25" s="98" t="s">
+      <c r="C26" s="98" t="s">
         <v>667</v>
       </c>
-      <c r="D25" s="99" t="s">
+      <c r="D26" s="99" t="s">
         <v>668</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="14.25">
-      <c r="A26" s="135" t="s">
+    <row r="27" spans="1:8" ht="14.25">
+      <c r="A27" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>510</v>
       </c>
-      <c r="H26" s="132" t="s">
+      <c r="H27" s="132" t="s">
         <v>669</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="132" customFormat="1" ht="14.25">
-      <c r="A28" s="135" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="132" t="s">
-        <v>423</v>
-      </c>
-      <c r="H28" s="132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="14.25">
+    <row r="29" spans="1:8" s="132" customFormat="1" ht="14.25">
       <c r="A29" s="135" t="s">
         <v>15</v>
       </c>
-      <c r="B29" t="s">
-        <v>617</v>
+      <c r="B29" s="132" t="s">
+        <v>423</v>
+      </c>
+      <c r="H29" s="132">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="14.25">
       <c r="A30" s="135" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="14.25">
+      <c r="A31" s="135" t="s">
         <v>670</v>
       </c>
     </row>
@@ -20816,7 +20833,7 @@
   <dimension ref="A1:EL37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:XFD21"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -20994,8 +21011,8 @@
       <c r="I4" s="101" t="s">
         <v>674</v>
       </c>
-      <c r="J4" s="101" t="s">
-        <v>675</v>
+      <c r="J4" s="177" t="s">
+        <v>861</v>
       </c>
       <c r="K4" s="124" t="s">
         <v>166</v>
@@ -21079,19 +21096,19 @@
         <v>166</v>
       </c>
       <c r="AL4" s="148" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AM4" s="130" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AN4" s="130" t="s">
         <v>659</v>
       </c>
       <c r="AO4" s="130" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AP4" s="130" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AQ4" s="124" t="s">
         <v>166</v>
@@ -21684,10 +21701,10 @@
         <v>166</v>
       </c>
       <c r="G10" s="102" t="s">
+        <v>676</v>
+      </c>
+      <c r="H10" s="102" t="s">
         <v>677</v>
-      </c>
-      <c r="H10" s="102" t="s">
-        <v>678</v>
       </c>
       <c r="I10" s="102" t="s">
         <v>158</v>
@@ -21696,7 +21713,7 @@
         <v>166</v>
       </c>
       <c r="K10" s="102" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="L10" s="102" t="s">
         <v>217</v>
@@ -21854,19 +21871,19 @@
         <v>166</v>
       </c>
       <c r="G11" s="102" t="s">
+        <v>679</v>
+      </c>
+      <c r="H11" s="102" t="s">
         <v>680</v>
       </c>
-      <c r="H11" s="102" t="s">
+      <c r="I11" s="102" t="s">
         <v>681</v>
       </c>
-      <c r="I11" s="102" t="s">
+      <c r="J11" s="124" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" s="102" t="s">
         <v>682</v>
-      </c>
-      <c r="J11" s="124" t="s">
-        <v>166</v>
-      </c>
-      <c r="K11" s="102" t="s">
-        <v>683</v>
       </c>
       <c r="L11" s="102" t="s">
         <v>217</v>
@@ -22024,19 +22041,19 @@
         <v>166</v>
       </c>
       <c r="G12" s="130" t="s">
+        <v>683</v>
+      </c>
+      <c r="H12" s="130" t="s">
         <v>684</v>
       </c>
-      <c r="H12" s="130" t="s">
+      <c r="I12" s="130" t="s">
+        <v>681</v>
+      </c>
+      <c r="J12" s="124" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" s="130" t="s">
         <v>685</v>
-      </c>
-      <c r="I12" s="130" t="s">
-        <v>682</v>
-      </c>
-      <c r="J12" s="124" t="s">
-        <v>166</v>
-      </c>
-      <c r="K12" s="130" t="s">
-        <v>686</v>
       </c>
       <c r="L12" s="130" t="s">
         <v>217</v>
@@ -22194,13 +22211,13 @@
         <v>166</v>
       </c>
       <c r="G13" s="130" t="s">
+        <v>686</v>
+      </c>
+      <c r="H13" s="130" t="s">
         <v>687</v>
       </c>
-      <c r="H13" s="130" t="s">
-        <v>688</v>
-      </c>
       <c r="I13" s="130" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J13" s="124" t="s">
         <v>166</v>
@@ -22364,19 +22381,19 @@
         <v>166</v>
       </c>
       <c r="G14" s="130" t="s">
+        <v>688</v>
+      </c>
+      <c r="H14" s="130" t="s">
         <v>689</v>
       </c>
-      <c r="H14" s="130" t="s">
+      <c r="I14" s="130" t="s">
+        <v>681</v>
+      </c>
+      <c r="J14" s="124" t="s">
+        <v>166</v>
+      </c>
+      <c r="K14" s="130" t="s">
         <v>690</v>
-      </c>
-      <c r="I14" s="130" t="s">
-        <v>682</v>
-      </c>
-      <c r="J14" s="124" t="s">
-        <v>166</v>
-      </c>
-      <c r="K14" s="130" t="s">
-        <v>691</v>
       </c>
       <c r="L14" s="130" t="s">
         <v>217</v>
@@ -22534,19 +22551,19 @@
         <v>166</v>
       </c>
       <c r="G15" s="102" t="s">
+        <v>691</v>
+      </c>
+      <c r="H15" s="102" t="s">
         <v>692</v>
       </c>
-      <c r="H15" s="102" t="s">
+      <c r="I15" s="102" t="s">
+        <v>681</v>
+      </c>
+      <c r="J15" s="124" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" s="102" t="s">
         <v>693</v>
-      </c>
-      <c r="I15" s="102" t="s">
-        <v>682</v>
-      </c>
-      <c r="J15" s="124" t="s">
-        <v>166</v>
-      </c>
-      <c r="K15" s="102" t="s">
-        <v>694</v>
       </c>
       <c r="L15" s="102" t="s">
         <v>217</v>
@@ -23160,7 +23177,7 @@
         <v>217</v>
       </c>
       <c r="H20" s="87" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I20" s="124" t="s">
         <v>166</v>
@@ -23400,13 +23417,13 @@
         <v>166</v>
       </c>
       <c r="CJ20" s="87" t="s">
+        <v>695</v>
+      </c>
+      <c r="CK20" s="87" t="s">
         <v>696</v>
       </c>
-      <c r="CK20" s="87" t="s">
+      <c r="CL20" s="87" t="s">
         <v>697</v>
-      </c>
-      <c r="CL20" s="87" t="s">
-        <v>698</v>
       </c>
       <c r="CM20" s="124" t="s">
         <v>166</v>
@@ -23421,7 +23438,7 @@
         <v>166</v>
       </c>
       <c r="CQ20" s="87" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="CR20" s="124" t="s">
         <v>166</v>
@@ -23586,10 +23603,10 @@
         <v>217</v>
       </c>
       <c r="H21" s="130" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I21" s="130" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J21" s="87" t="s">
         <v>376</v>
@@ -23682,7 +23699,7 @@
         <v>166</v>
       </c>
       <c r="AN21" s="87" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AO21" s="59" t="s">
         <v>217</v>
@@ -23826,13 +23843,13 @@
         <v>166</v>
       </c>
       <c r="CJ21" s="87" t="s">
+        <v>699</v>
+      </c>
+      <c r="CK21" s="87" t="s">
+        <v>696</v>
+      </c>
+      <c r="CL21" s="87" t="s">
         <v>700</v>
-      </c>
-      <c r="CK21" s="87" t="s">
-        <v>697</v>
-      </c>
-      <c r="CL21" s="87" t="s">
-        <v>701</v>
       </c>
       <c r="CM21" s="124" t="s">
         <v>166</v>
@@ -23847,7 +23864,7 @@
         <v>166</v>
       </c>
       <c r="CQ21" s="87" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="CR21" s="124" t="s">
         <v>166</v>
@@ -24012,7 +24029,7 @@
         <v>217</v>
       </c>
       <c r="H22" s="87" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I22" s="124" t="s">
         <v>166</v>
@@ -24027,7 +24044,7 @@
         <v>389</v>
       </c>
       <c r="M22" s="87" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N22" s="87" t="s">
         <v>390</v>
@@ -24252,13 +24269,13 @@
         <v>166</v>
       </c>
       <c r="CJ22" s="87" t="s">
+        <v>699</v>
+      </c>
+      <c r="CK22" s="87" t="s">
+        <v>696</v>
+      </c>
+      <c r="CL22" s="87" t="s">
         <v>700</v>
-      </c>
-      <c r="CK22" s="87" t="s">
-        <v>697</v>
-      </c>
-      <c r="CL22" s="87" t="s">
-        <v>701</v>
       </c>
       <c r="CM22" s="124" t="s">
         <v>166</v>
@@ -24273,7 +24290,7 @@
         <v>166</v>
       </c>
       <c r="CQ22" s="87" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="CR22" s="124" t="s">
         <v>166</v>
@@ -24438,7 +24455,7 @@
         <v>218</v>
       </c>
       <c r="H23" s="87" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I23" s="124" t="s">
         <v>166</v>
@@ -24453,7 +24470,7 @@
         <v>381</v>
       </c>
       <c r="M23" s="87" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N23" s="87" t="s">
         <v>244</v>
@@ -24711,7 +24728,7 @@
         <v>166</v>
       </c>
       <c r="CU23" s="87" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="CV23" s="124" t="s">
         <v>166</v>
@@ -24854,7 +24871,7 @@
     </row>
     <row r="26" spans="1:142" s="52" customFormat="1">
       <c r="B26" s="146" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="27" spans="1:142" s="52" customFormat="1">
@@ -24937,7 +24954,7 @@
         <v>492</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="28" spans="1:142" s="50" customFormat="1">
@@ -25213,7 +25230,7 @@
         <v>166</v>
       </c>
       <c r="Z29" s="96" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AA29" s="51" t="s">
         <v>217</v>
@@ -25738,17 +25755,17 @@
         <v>238</v>
       </c>
       <c r="B33" s="142" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="34" spans="1:19">
       <c r="B34" s="146" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="35" spans="1:19">
       <c r="B35" s="143" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C35" s="147" t="s">
         <v>16</v>
@@ -25763,10 +25780,10 @@
         <v>18</v>
       </c>
       <c r="G35" s="147" t="s">
+        <v>719</v>
+      </c>
+      <c r="H35" s="147" t="s">
         <v>720</v>
-      </c>
-      <c r="H35" s="147" t="s">
-        <v>721</v>
       </c>
       <c r="I35" s="147" t="s">
         <v>404</v>
@@ -25778,31 +25795,31 @@
         <v>429</v>
       </c>
       <c r="L35" s="147" t="s">
+        <v>721</v>
+      </c>
+      <c r="M35" s="147" t="s">
         <v>722</v>
       </c>
-      <c r="M35" s="147" t="s">
+      <c r="N35" s="147" t="s">
         <v>723</v>
       </c>
-      <c r="N35" s="147" t="s">
+      <c r="O35" s="147" t="s">
         <v>724</v>
-      </c>
-      <c r="O35" s="147" t="s">
-        <v>725</v>
       </c>
       <c r="P35" s="147" t="s">
         <v>462</v>
       </c>
       <c r="Q35" s="147" t="s">
+        <v>725</v>
+      </c>
+      <c r="R35" s="147" t="s">
         <v>726</v>
-      </c>
-      <c r="R35" s="147" t="s">
-        <v>727</v>
       </c>
       <c r="S35" s="137"/>
     </row>
     <row r="36" spans="1:19">
       <c r="B36" s="148" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C36" s="148" t="s">
         <v>239</v>
@@ -25817,7 +25834,7 @@
         <v>166</v>
       </c>
       <c r="G36" s="148" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H36" s="148">
         <v>2</v>
@@ -25835,13 +25852,13 @@
         <v>665</v>
       </c>
       <c r="M36" s="148" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="N36" s="148" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="O36" s="148" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="P36" s="148">
         <v>1</v>
@@ -25879,7 +25896,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="149" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C1" s="33"/>
     </row>
@@ -25896,11 +25913,11 @@
         <v>15</v>
       </c>
       <c r="B4" s="52" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C4" s="33"/>
       <c r="H4" s="137" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="52" customFormat="1" ht="14.25">
@@ -25924,19 +25941,19 @@
         <v>15</v>
       </c>
       <c r="B6" s="137" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C6" s="137"/>
       <c r="D6" s="137"/>
       <c r="E6" s="137"/>
       <c r="F6" s="20"/>
       <c r="H6" s="137" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="151" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B7" s="137">
         <v>1</v>
@@ -25950,7 +25967,7 @@
         <v>664</v>
       </c>
       <c r="B8" s="152" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C8" s="137"/>
       <c r="D8" s="137"/>
@@ -25958,7 +25975,7 @@
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="151" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B9" s="137">
         <v>-1</v>
@@ -25969,7 +25986,7 @@
     </row>
     <row r="10" spans="1:8" ht="14.25">
       <c r="A10" s="151" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B10" s="137">
         <v>0</v>
@@ -25986,12 +26003,12 @@
         <v>618</v>
       </c>
       <c r="H12" s="137" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="137" customFormat="1" ht="14.25">
       <c r="A13" s="151" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B13" s="137" t="s">
         <v>621</v>
@@ -25999,15 +26016,15 @@
     </row>
     <row r="14" spans="1:8" s="137" customFormat="1" ht="14.25">
       <c r="A14" s="151" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="B14" s="137" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="15" spans="1:8" s="137" customFormat="1" ht="14.25">
       <c r="A15" s="151" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B15" s="137">
         <v>0</v>
@@ -26018,10 +26035,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>753</v>
+      </c>
+      <c r="H16" s="137" t="s">
         <v>754</v>
-      </c>
-      <c r="H16" s="137" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.25">
@@ -26029,12 +26046,12 @@
         <v>664</v>
       </c>
       <c r="B17" s="152" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.25">
       <c r="A19" s="151" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B19" s="137">
         <v>1</v>
@@ -26046,13 +26063,13 @@
         <v>1</v>
       </c>
       <c r="B20" s="138" t="s">
+        <v>787</v>
+      </c>
+      <c r="C20" s="139" t="s">
+        <v>789</v>
+      </c>
+      <c r="D20" s="140" t="s">
         <v>788</v>
-      </c>
-      <c r="C20" s="139" t="s">
-        <v>790</v>
-      </c>
-      <c r="D20" s="140" t="s">
-        <v>789</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.25">
@@ -26060,10 +26077,10 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
+        <v>790</v>
+      </c>
+      <c r="H21" t="s">
         <v>791</v>
-      </c>
-      <c r="H21" t="s">
-        <v>792</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.25">
@@ -26071,10 +26088,10 @@
         <v>15</v>
       </c>
       <c r="B22" t="s">
+        <v>792</v>
+      </c>
+      <c r="H22" s="159" t="s">
         <v>793</v>
-      </c>
-      <c r="H22" s="159" t="s">
-        <v>794</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="14.25">
@@ -26082,10 +26099,10 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
+        <v>794</v>
+      </c>
+      <c r="H23" s="159" t="s">
         <v>795</v>
-      </c>
-      <c r="H23" s="159" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="14.25">
@@ -26093,10 +26110,10 @@
         <v>15</v>
       </c>
       <c r="B24" t="s">
+        <v>796</v>
+      </c>
+      <c r="H24" t="s">
         <v>797</v>
-      </c>
-      <c r="H24" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="14.25">
@@ -26106,7 +26123,7 @@
     </row>
     <row r="26" spans="1:8" ht="14.25">
       <c r="A26" s="171" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B26">
         <v>-1</v>
@@ -26114,7 +26131,7 @@
     </row>
     <row r="27" spans="1:8" s="159" customFormat="1" ht="14.25">
       <c r="A27" s="171" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B27" s="159">
         <v>0</v>
@@ -26311,7 +26328,7 @@
         <v>674</v>
       </c>
       <c r="J4" s="164" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K4" s="144" t="s">
         <v>166</v>
@@ -26395,19 +26412,19 @@
         <v>166</v>
       </c>
       <c r="AL4" s="148" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="AM4" s="148" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AN4" s="148" t="s">
         <v>659</v>
       </c>
       <c r="AO4" s="148" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AP4" s="148" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AQ4" s="144" t="s">
         <v>166</v>
@@ -27000,10 +27017,10 @@
         <v>166</v>
       </c>
       <c r="G10" s="148" t="s">
+        <v>676</v>
+      </c>
+      <c r="H10" s="148" t="s">
         <v>677</v>
-      </c>
-      <c r="H10" s="148" t="s">
-        <v>678</v>
       </c>
       <c r="I10" s="148" t="s">
         <v>158</v>
@@ -27012,7 +27029,7 @@
         <v>166</v>
       </c>
       <c r="K10" s="148" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="L10" s="148" t="s">
         <v>217</v>
@@ -27170,19 +27187,19 @@
         <v>166</v>
       </c>
       <c r="G11" s="148" t="s">
+        <v>679</v>
+      </c>
+      <c r="H11" s="148" t="s">
         <v>680</v>
       </c>
-      <c r="H11" s="148" t="s">
-        <v>681</v>
-      </c>
       <c r="I11" s="164" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J11" s="144" t="s">
         <v>166</v>
       </c>
       <c r="K11" s="148" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L11" s="148" t="s">
         <v>217</v>
@@ -27340,19 +27357,19 @@
         <v>166</v>
       </c>
       <c r="G12" s="148" t="s">
+        <v>683</v>
+      </c>
+      <c r="H12" s="148" t="s">
         <v>684</v>
       </c>
-      <c r="H12" s="148" t="s">
+      <c r="I12" s="148" t="s">
+        <v>681</v>
+      </c>
+      <c r="J12" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" s="148" t="s">
         <v>685</v>
-      </c>
-      <c r="I12" s="148" t="s">
-        <v>682</v>
-      </c>
-      <c r="J12" s="144" t="s">
-        <v>166</v>
-      </c>
-      <c r="K12" s="148" t="s">
-        <v>686</v>
       </c>
       <c r="L12" s="148" t="s">
         <v>217</v>
@@ -27510,13 +27527,13 @@
         <v>166</v>
       </c>
       <c r="G13" s="148" t="s">
+        <v>686</v>
+      </c>
+      <c r="H13" s="148" t="s">
         <v>687</v>
       </c>
-      <c r="H13" s="148" t="s">
-        <v>688</v>
-      </c>
       <c r="I13" s="148" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="J13" s="144" t="s">
         <v>166</v>
@@ -27680,19 +27697,19 @@
         <v>166</v>
       </c>
       <c r="G14" s="148" t="s">
+        <v>688</v>
+      </c>
+      <c r="H14" s="148" t="s">
         <v>689</v>
       </c>
-      <c r="H14" s="148" t="s">
+      <c r="I14" s="148" t="s">
+        <v>681</v>
+      </c>
+      <c r="J14" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="K14" s="148" t="s">
         <v>690</v>
-      </c>
-      <c r="I14" s="148" t="s">
-        <v>682</v>
-      </c>
-      <c r="J14" s="144" t="s">
-        <v>166</v>
-      </c>
-      <c r="K14" s="148" t="s">
-        <v>691</v>
       </c>
       <c r="L14" s="148" t="s">
         <v>217</v>
@@ -27850,19 +27867,19 @@
         <v>166</v>
       </c>
       <c r="G15" s="148" t="s">
+        <v>691</v>
+      </c>
+      <c r="H15" s="148" t="s">
         <v>692</v>
       </c>
-      <c r="H15" s="148" t="s">
+      <c r="I15" s="148" t="s">
+        <v>681</v>
+      </c>
+      <c r="J15" s="144" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" s="148" t="s">
         <v>693</v>
-      </c>
-      <c r="I15" s="148" t="s">
-        <v>682</v>
-      </c>
-      <c r="J15" s="144" t="s">
-        <v>166</v>
-      </c>
-      <c r="K15" s="148" t="s">
-        <v>694</v>
       </c>
       <c r="L15" s="148" t="s">
         <v>217</v>
@@ -28476,7 +28493,7 @@
         <v>217</v>
       </c>
       <c r="H20" s="148" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I20" s="144" t="s">
         <v>166</v>
@@ -28716,13 +28733,13 @@
         <v>166</v>
       </c>
       <c r="CJ20" s="148" t="s">
+        <v>695</v>
+      </c>
+      <c r="CK20" s="148" t="s">
         <v>696</v>
       </c>
-      <c r="CK20" s="148" t="s">
+      <c r="CL20" s="148" t="s">
         <v>697</v>
-      </c>
-      <c r="CL20" s="148" t="s">
-        <v>698</v>
       </c>
       <c r="CM20" s="144" t="s">
         <v>166</v>
@@ -28737,7 +28754,7 @@
         <v>166</v>
       </c>
       <c r="CQ20" s="148" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="CR20" s="144" t="s">
         <v>166</v>
@@ -28902,10 +28919,10 @@
         <v>217</v>
       </c>
       <c r="H21" s="148" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I21" s="148" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J21" s="148" t="s">
         <v>376</v>
@@ -28998,7 +29015,7 @@
         <v>166</v>
       </c>
       <c r="AN21" s="148" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AO21" s="100" t="s">
         <v>217</v>
@@ -29142,13 +29159,13 @@
         <v>166</v>
       </c>
       <c r="CJ21" s="148" t="s">
+        <v>699</v>
+      </c>
+      <c r="CK21" s="148" t="s">
+        <v>696</v>
+      </c>
+      <c r="CL21" s="148" t="s">
         <v>700</v>
-      </c>
-      <c r="CK21" s="148" t="s">
-        <v>697</v>
-      </c>
-      <c r="CL21" s="148" t="s">
-        <v>701</v>
       </c>
       <c r="CM21" s="144" t="s">
         <v>166</v>
@@ -29163,7 +29180,7 @@
         <v>166</v>
       </c>
       <c r="CQ21" s="148" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="CR21" s="144" t="s">
         <v>166</v>
@@ -29328,7 +29345,7 @@
         <v>217</v>
       </c>
       <c r="H22" s="148" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I22" s="144" t="s">
         <v>166</v>
@@ -29343,7 +29360,7 @@
         <v>389</v>
       </c>
       <c r="M22" s="148" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N22" s="148" t="s">
         <v>390</v>
@@ -29568,13 +29585,13 @@
         <v>166</v>
       </c>
       <c r="CJ22" s="148" t="s">
+        <v>699</v>
+      </c>
+      <c r="CK22" s="148" t="s">
+        <v>696</v>
+      </c>
+      <c r="CL22" s="148" t="s">
         <v>700</v>
-      </c>
-      <c r="CK22" s="148" t="s">
-        <v>697</v>
-      </c>
-      <c r="CL22" s="148" t="s">
-        <v>701</v>
       </c>
       <c r="CM22" s="144" t="s">
         <v>166</v>
@@ -29589,7 +29606,7 @@
         <v>166</v>
       </c>
       <c r="CQ22" s="148" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="CR22" s="144" t="s">
         <v>166</v>
@@ -29754,7 +29771,7 @@
         <v>218</v>
       </c>
       <c r="H23" s="148" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I23" s="144" t="s">
         <v>166</v>
@@ -29769,7 +29786,7 @@
         <v>381</v>
       </c>
       <c r="M23" s="148" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N23" s="148" t="s">
         <v>244</v>
@@ -30027,7 +30044,7 @@
         <v>166</v>
       </c>
       <c r="CU23" s="148" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="CV23" s="144" t="s">
         <v>166</v>
@@ -30170,7 +30187,7 @@
     </row>
     <row r="26" spans="1:142" s="137" customFormat="1">
       <c r="B26" s="146" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="27" spans="1:142" s="137" customFormat="1">
@@ -30253,7 +30270,7 @@
         <v>492</v>
       </c>
       <c r="AB27" s="147" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="28" spans="1:142" s="149" customFormat="1">
@@ -30286,7 +30303,7 @@
         <v>166</v>
       </c>
       <c r="K28" s="165" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L28" s="148" t="s">
         <v>217</v>
@@ -30529,7 +30546,7 @@
         <v>166</v>
       </c>
       <c r="Z29" s="148" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AA29" s="148" t="s">
         <v>217</v>
@@ -30673,7 +30690,7 @@
         <v>513</v>
       </c>
       <c r="H30" s="164" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I30" s="148" t="s">
         <v>514</v>
@@ -31054,17 +31071,17 @@
         <v>238</v>
       </c>
       <c r="B33" s="142" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="137" customFormat="1">
       <c r="B34" s="146" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="137" customFormat="1">
       <c r="B35" s="143" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C35" s="147" t="s">
         <v>16</v>
@@ -31079,10 +31096,10 @@
         <v>18</v>
       </c>
       <c r="G35" s="147" t="s">
+        <v>719</v>
+      </c>
+      <c r="H35" s="147" t="s">
         <v>720</v>
-      </c>
-      <c r="H35" s="147" t="s">
-        <v>721</v>
       </c>
       <c r="I35" s="147" t="s">
         <v>404</v>
@@ -31094,30 +31111,30 @@
         <v>429</v>
       </c>
       <c r="L35" s="147" t="s">
+        <v>721</v>
+      </c>
+      <c r="M35" s="147" t="s">
         <v>722</v>
       </c>
-      <c r="M35" s="147" t="s">
+      <c r="N35" s="147" t="s">
         <v>723</v>
       </c>
-      <c r="N35" s="147" t="s">
+      <c r="O35" s="147" t="s">
         <v>724</v>
-      </c>
-      <c r="O35" s="147" t="s">
-        <v>725</v>
       </c>
       <c r="P35" s="147" t="s">
         <v>462</v>
       </c>
       <c r="Q35" s="147" t="s">
+        <v>725</v>
+      </c>
+      <c r="R35" s="147" t="s">
         <v>726</v>
-      </c>
-      <c r="R35" s="147" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="36" spans="1:18" s="137" customFormat="1">
       <c r="B36" s="148" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C36" s="148" t="s">
         <v>239</v>
@@ -31132,7 +31149,7 @@
         <v>166</v>
       </c>
       <c r="G36" s="148" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H36" s="148">
         <v>2</v>
@@ -31147,22 +31164,22 @@
         <v>2</v>
       </c>
       <c r="L36" s="164" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M36" s="148" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="N36" s="148" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="O36" s="148" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="P36" s="148">
         <v>1</v>
       </c>
       <c r="Q36" s="164" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="R36" s="144" t="s">
         <v>166</v>
@@ -31197,7 +31214,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="149" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C1" s="150"/>
     </row>
@@ -31214,11 +31231,11 @@
         <v>15</v>
       </c>
       <c r="B4" s="137" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C4" s="150"/>
       <c r="H4" s="137" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="137" customFormat="1" ht="14.25">
@@ -31237,7 +31254,7 @@
         <v>664</v>
       </c>
       <c r="B6" s="173" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="14.25">
@@ -31258,7 +31275,7 @@
         <v>0</v>
       </c>
       <c r="B11" s="149" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C11" s="150"/>
     </row>
@@ -31275,11 +31292,11 @@
         <v>15</v>
       </c>
       <c r="B14" s="137" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C14" s="150"/>
       <c r="H14" s="137" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="137" customFormat="1" ht="14.25">
@@ -31287,7 +31304,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="137" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H15" s="137">
         <v>4</v>
@@ -31298,10 +31315,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="J16" s="137" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="14.25">
@@ -31309,10 +31326,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="J17" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="159" customFormat="1" ht="14.25">
@@ -31320,12 +31337,12 @@
         <v>664</v>
       </c>
       <c r="B18" s="159" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="137" customFormat="1" ht="14.25">
       <c r="A19" s="151" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B19" s="137">
         <v>1</v>
@@ -31336,12 +31353,12 @@
         <v>664</v>
       </c>
       <c r="B20" s="159" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="137" customFormat="1" ht="14.25">
       <c r="A21" s="151" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B21" s="137">
         <v>-1</v>
@@ -31349,7 +31366,7 @@
     </row>
     <row r="22" spans="1:10" s="137" customFormat="1" ht="14.25">
       <c r="A22" s="151" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B22" s="137">
         <v>1</v>
@@ -31360,12 +31377,12 @@
         <v>664</v>
       </c>
       <c r="B23" s="159" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="137" customFormat="1" ht="14.25">
       <c r="A24" s="151" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B24" s="137">
         <v>-1</v>
@@ -31373,7 +31390,7 @@
     </row>
     <row r="25" spans="1:10" ht="14.25">
       <c r="A25" s="151" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -31388,7 +31405,7 @@
         <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="14.25">
@@ -31408,8 +31425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EL40"/>
   <sheetViews>
-    <sheetView topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="K24" sqref="K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -31587,8 +31604,8 @@
       <c r="I4" s="164" t="s">
         <v>674</v>
       </c>
-      <c r="J4" s="164" t="s">
-        <v>803</v>
+      <c r="J4" s="177" t="s">
+        <v>862</v>
       </c>
       <c r="K4" s="165" t="s">
         <v>166</v>
@@ -31672,19 +31689,19 @@
         <v>166</v>
       </c>
       <c r="AL4" s="164" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AM4" s="164" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AN4" s="164" t="s">
         <v>659</v>
       </c>
       <c r="AO4" s="164" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AP4" s="164" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AQ4" s="165" t="s">
         <v>166</v>
@@ -32277,10 +32294,10 @@
         <v>166</v>
       </c>
       <c r="G10" s="164" t="s">
+        <v>676</v>
+      </c>
+      <c r="H10" s="164" t="s">
         <v>677</v>
-      </c>
-      <c r="H10" s="164" t="s">
-        <v>678</v>
       </c>
       <c r="I10" s="164" t="s">
         <v>158</v>
@@ -32289,7 +32306,7 @@
         <v>166</v>
       </c>
       <c r="K10" s="164" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="L10" s="164" t="s">
         <v>217</v>
@@ -32447,19 +32464,19 @@
         <v>166</v>
       </c>
       <c r="G11" s="164" t="s">
+        <v>679</v>
+      </c>
+      <c r="H11" s="164" t="s">
         <v>680</v>
       </c>
-      <c r="H11" s="164" t="s">
-        <v>681</v>
-      </c>
       <c r="I11" s="164" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J11" s="165" t="s">
         <v>166</v>
       </c>
       <c r="K11" s="164" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L11" s="164" t="s">
         <v>217</v>
@@ -32617,19 +32634,19 @@
         <v>166</v>
       </c>
       <c r="G12" s="164" t="s">
+        <v>683</v>
+      </c>
+      <c r="H12" s="164" t="s">
         <v>684</v>
       </c>
-      <c r="H12" s="164" t="s">
+      <c r="I12" s="164" t="s">
+        <v>803</v>
+      </c>
+      <c r="J12" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" s="164" t="s">
         <v>685</v>
-      </c>
-      <c r="I12" s="164" t="s">
-        <v>804</v>
-      </c>
-      <c r="J12" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="K12" s="164" t="s">
-        <v>686</v>
       </c>
       <c r="L12" s="164" t="s">
         <v>217</v>
@@ -32787,13 +32804,13 @@
         <v>166</v>
       </c>
       <c r="G13" s="164" t="s">
+        <v>686</v>
+      </c>
+      <c r="H13" s="164" t="s">
         <v>687</v>
       </c>
-      <c r="H13" s="164" t="s">
-        <v>688</v>
-      </c>
       <c r="I13" s="164" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J13" s="165" t="s">
         <v>166</v>
@@ -32957,19 +32974,19 @@
         <v>166</v>
       </c>
       <c r="G14" s="164" t="s">
+        <v>688</v>
+      </c>
+      <c r="H14" s="164" t="s">
         <v>689</v>
       </c>
-      <c r="H14" s="164" t="s">
+      <c r="I14" s="164" t="s">
+        <v>681</v>
+      </c>
+      <c r="J14" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="K14" s="164" t="s">
         <v>690</v>
-      </c>
-      <c r="I14" s="164" t="s">
-        <v>682</v>
-      </c>
-      <c r="J14" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="K14" s="164" t="s">
-        <v>691</v>
       </c>
       <c r="L14" s="164" t="s">
         <v>217</v>
@@ -33127,19 +33144,19 @@
         <v>166</v>
       </c>
       <c r="G15" s="164" t="s">
+        <v>691</v>
+      </c>
+      <c r="H15" s="164" t="s">
         <v>692</v>
       </c>
-      <c r="H15" s="164" t="s">
+      <c r="I15" s="164" t="s">
+        <v>681</v>
+      </c>
+      <c r="J15" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" s="164" t="s">
         <v>693</v>
-      </c>
-      <c r="I15" s="164" t="s">
-        <v>682</v>
-      </c>
-      <c r="J15" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="K15" s="164" t="s">
-        <v>694</v>
       </c>
       <c r="L15" s="164" t="s">
         <v>217</v>
@@ -33753,7 +33770,7 @@
         <v>217</v>
       </c>
       <c r="H20" s="164" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I20" s="165" t="s">
         <v>166</v>
@@ -33993,13 +34010,13 @@
         <v>166</v>
       </c>
       <c r="CJ20" s="164" t="s">
+        <v>695</v>
+      </c>
+      <c r="CK20" s="164" t="s">
         <v>696</v>
       </c>
-      <c r="CK20" s="164" t="s">
+      <c r="CL20" s="164" t="s">
         <v>697</v>
-      </c>
-      <c r="CL20" s="164" t="s">
-        <v>698</v>
       </c>
       <c r="CM20" s="165" t="s">
         <v>166</v>
@@ -34014,7 +34031,7 @@
         <v>166</v>
       </c>
       <c r="CQ20" s="164" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="CR20" s="165" t="s">
         <v>166</v>
@@ -34179,10 +34196,10 @@
         <v>217</v>
       </c>
       <c r="H21" s="164" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I21" s="164" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J21" s="164" t="s">
         <v>376</v>
@@ -34275,7 +34292,7 @@
         <v>166</v>
       </c>
       <c r="AN21" s="164" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AO21" s="174" t="s">
         <v>217</v>
@@ -34419,13 +34436,13 @@
         <v>166</v>
       </c>
       <c r="CJ21" s="164" t="s">
+        <v>699</v>
+      </c>
+      <c r="CK21" s="164" t="s">
+        <v>696</v>
+      </c>
+      <c r="CL21" s="164" t="s">
         <v>700</v>
-      </c>
-      <c r="CK21" s="164" t="s">
-        <v>697</v>
-      </c>
-      <c r="CL21" s="164" t="s">
-        <v>701</v>
       </c>
       <c r="CM21" s="165" t="s">
         <v>166</v>
@@ -34440,7 +34457,7 @@
         <v>166</v>
       </c>
       <c r="CQ21" s="164" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="CR21" s="165" t="s">
         <v>166</v>
@@ -34605,7 +34622,7 @@
         <v>217</v>
       </c>
       <c r="H22" s="164" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I22" s="165" t="s">
         <v>166</v>
@@ -34620,7 +34637,7 @@
         <v>389</v>
       </c>
       <c r="M22" s="164" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N22" s="164" t="s">
         <v>390</v>
@@ -34845,13 +34862,13 @@
         <v>166</v>
       </c>
       <c r="CJ22" s="164" t="s">
+        <v>699</v>
+      </c>
+      <c r="CK22" s="164" t="s">
+        <v>696</v>
+      </c>
+      <c r="CL22" s="164" t="s">
         <v>700</v>
-      </c>
-      <c r="CK22" s="164" t="s">
-        <v>697</v>
-      </c>
-      <c r="CL22" s="164" t="s">
-        <v>701</v>
       </c>
       <c r="CM22" s="165" t="s">
         <v>166</v>
@@ -34866,7 +34883,7 @@
         <v>166</v>
       </c>
       <c r="CQ22" s="164" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="CR22" s="165" t="s">
         <v>166</v>
@@ -35031,7 +35048,7 @@
         <v>218</v>
       </c>
       <c r="H23" s="164" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I23" s="165" t="s">
         <v>166</v>
@@ -35046,7 +35063,7 @@
         <v>381</v>
       </c>
       <c r="M23" s="164" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N23" s="164" t="s">
         <v>244</v>
@@ -35304,7 +35321,7 @@
         <v>166</v>
       </c>
       <c r="CU23" s="164" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="CV23" s="165" t="s">
         <v>166</v>
@@ -35447,7 +35464,7 @@
     </row>
     <row r="26" spans="1:142" s="159" customFormat="1">
       <c r="B26" s="168" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="27" spans="1:142" s="159" customFormat="1">
@@ -35530,7 +35547,7 @@
         <v>492</v>
       </c>
       <c r="AB27" s="162" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="28" spans="1:142" s="166" customFormat="1">
@@ -35563,7 +35580,7 @@
         <v>166</v>
       </c>
       <c r="K28" s="165" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L28" s="164" t="s">
         <v>217</v>
@@ -35806,7 +35823,7 @@
         <v>166</v>
       </c>
       <c r="Z29" s="164" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AA29" s="164" t="s">
         <v>217</v>
@@ -35950,7 +35967,7 @@
         <v>513</v>
       </c>
       <c r="H30" s="164" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I30" s="164" t="s">
         <v>514</v>
@@ -36151,7 +36168,7 @@
         <v>513</v>
       </c>
       <c r="I31" s="164" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J31" s="165" t="s">
         <v>166</v>
@@ -36331,12 +36348,12 @@
         <v>238</v>
       </c>
       <c r="B33" s="167" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="159" customFormat="1">
       <c r="B34" s="168" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="159" customFormat="1">
@@ -36356,10 +36373,10 @@
         <v>18</v>
       </c>
       <c r="G35" s="162" t="s">
+        <v>719</v>
+      </c>
+      <c r="H35" s="162" t="s">
         <v>720</v>
-      </c>
-      <c r="H35" s="162" t="s">
-        <v>721</v>
       </c>
       <c r="I35" s="162" t="s">
         <v>404</v>
@@ -36371,25 +36388,25 @@
         <v>429</v>
       </c>
       <c r="L35" s="162" t="s">
+        <v>721</v>
+      </c>
+      <c r="M35" s="162" t="s">
         <v>722</v>
       </c>
-      <c r="M35" s="162" t="s">
+      <c r="N35" s="162" t="s">
         <v>723</v>
       </c>
-      <c r="N35" s="162" t="s">
+      <c r="O35" s="162" t="s">
         <v>724</v>
-      </c>
-      <c r="O35" s="162" t="s">
-        <v>725</v>
       </c>
       <c r="P35" s="162" t="s">
         <v>462</v>
       </c>
       <c r="Q35" s="162" t="s">
+        <v>725</v>
+      </c>
+      <c r="R35" s="162" t="s">
         <v>726</v>
-      </c>
-      <c r="R35" s="162" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="36" spans="1:18" s="159" customFormat="1">
@@ -36409,7 +36426,7 @@
         <v>166</v>
       </c>
       <c r="G36" s="164" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H36" s="164">
         <v>2</v>
@@ -36424,22 +36441,22 @@
         <v>2</v>
       </c>
       <c r="L36" s="164" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M36" s="164" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="N36" s="164" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O36" s="164" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="P36" s="164">
         <v>1</v>
       </c>
       <c r="Q36" s="164" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="R36" s="165" t="s">
         <v>166</v>
@@ -36476,7 +36493,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="166" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C1" s="170"/>
     </row>
@@ -36493,11 +36510,11 @@
         <v>15</v>
       </c>
       <c r="B4" s="159" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C4" s="170"/>
       <c r="H4" s="159" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="14.25">
@@ -36505,7 +36522,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="159" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="H5" s="159">
         <v>5</v>
@@ -36513,16 +36530,16 @@
     </row>
     <row r="6" spans="1:8" ht="14.25">
       <c r="A6" s="171" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B6" s="159" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C6" s="159">
         <v>1</v>
       </c>
       <c r="D6" s="159" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
@@ -36530,10 +36547,10 @@
         <v>15</v>
       </c>
       <c r="B7" s="159" t="s">
+        <v>840</v>
+      </c>
+      <c r="H7" s="159" t="s">
         <v>841</v>
-      </c>
-      <c r="H7" s="159" t="s">
-        <v>842</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
@@ -36541,10 +36558,10 @@
     </row>
     <row r="9" spans="1:8" ht="14.25">
       <c r="A9" s="171" t="s">
+        <v>818</v>
+      </c>
+      <c r="B9" s="159" t="s">
         <v>819</v>
-      </c>
-      <c r="B9" s="159" t="s">
-        <v>820</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25">
@@ -36552,7 +36569,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="159" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25">
@@ -36565,7 +36582,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="166" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C14" s="170"/>
     </row>
@@ -36582,11 +36599,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="159" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C17" s="170"/>
       <c r="H17" s="159" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.25">
@@ -36594,7 +36611,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="159" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H18" s="159">
         <v>6</v>
@@ -36602,10 +36619,10 @@
     </row>
     <row r="19" spans="1:8" ht="14.25">
       <c r="A19" s="171" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B19" s="173" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.25">
@@ -36613,7 +36630,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="159" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.25">
@@ -36632,8 +36649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:EL41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -36814,8 +36831,8 @@
       <c r="I4" s="164" t="s">
         <v>674</v>
       </c>
-      <c r="J4" s="164" t="s">
-        <v>803</v>
+      <c r="J4" s="177" t="s">
+        <v>863</v>
       </c>
       <c r="K4" s="165" t="s">
         <v>166</v>
@@ -36899,19 +36916,19 @@
         <v>166</v>
       </c>
       <c r="AL4" s="164" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AM4" s="164" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AN4" s="164" t="s">
         <v>659</v>
       </c>
       <c r="AO4" s="164" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AP4" s="164" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AQ4" s="165" t="s">
         <v>166</v>
@@ -37504,10 +37521,10 @@
         <v>166</v>
       </c>
       <c r="G10" s="164" t="s">
+        <v>676</v>
+      </c>
+      <c r="H10" s="164" t="s">
         <v>677</v>
-      </c>
-      <c r="H10" s="164" t="s">
-        <v>678</v>
       </c>
       <c r="I10" s="164" t="s">
         <v>158</v>
@@ -37516,7 +37533,7 @@
         <v>166</v>
       </c>
       <c r="K10" s="164" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="L10" s="164" t="s">
         <v>217</v>
@@ -37674,19 +37691,19 @@
         <v>166</v>
       </c>
       <c r="G11" s="164" t="s">
+        <v>679</v>
+      </c>
+      <c r="H11" s="164" t="s">
         <v>680</v>
       </c>
-      <c r="H11" s="164" t="s">
-        <v>681</v>
-      </c>
       <c r="I11" s="164" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J11" s="165" t="s">
         <v>166</v>
       </c>
       <c r="K11" s="164" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="L11" s="164" t="s">
         <v>217</v>
@@ -37844,19 +37861,19 @@
         <v>166</v>
       </c>
       <c r="G12" s="164" t="s">
+        <v>683</v>
+      </c>
+      <c r="H12" s="164" t="s">
         <v>684</v>
       </c>
-      <c r="H12" s="164" t="s">
+      <c r="I12" s="164" t="s">
+        <v>803</v>
+      </c>
+      <c r="J12" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="K12" s="164" t="s">
         <v>685</v>
-      </c>
-      <c r="I12" s="164" t="s">
-        <v>804</v>
-      </c>
-      <c r="J12" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="K12" s="164" t="s">
-        <v>686</v>
       </c>
       <c r="L12" s="164" t="s">
         <v>217</v>
@@ -38014,13 +38031,13 @@
         <v>166</v>
       </c>
       <c r="G13" s="164" t="s">
+        <v>686</v>
+      </c>
+      <c r="H13" s="164" t="s">
         <v>687</v>
       </c>
-      <c r="H13" s="164" t="s">
-        <v>688</v>
-      </c>
       <c r="I13" s="164" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="J13" s="165" t="s">
         <v>166</v>
@@ -38184,19 +38201,19 @@
         <v>166</v>
       </c>
       <c r="G14" s="164" t="s">
+        <v>688</v>
+      </c>
+      <c r="H14" s="164" t="s">
         <v>689</v>
       </c>
-      <c r="H14" s="164" t="s">
+      <c r="I14" s="164" t="s">
+        <v>816</v>
+      </c>
+      <c r="J14" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="K14" s="164" t="s">
         <v>690</v>
-      </c>
-      <c r="I14" s="164" t="s">
-        <v>817</v>
-      </c>
-      <c r="J14" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="K14" s="164" t="s">
-        <v>691</v>
       </c>
       <c r="L14" s="164" t="s">
         <v>217</v>
@@ -38354,19 +38371,19 @@
         <v>166</v>
       </c>
       <c r="G15" s="164" t="s">
+        <v>691</v>
+      </c>
+      <c r="H15" s="164" t="s">
         <v>692</v>
       </c>
-      <c r="H15" s="164" t="s">
+      <c r="I15" s="164" t="s">
+        <v>817</v>
+      </c>
+      <c r="J15" s="165" t="s">
+        <v>166</v>
+      </c>
+      <c r="K15" s="164" t="s">
         <v>693</v>
-      </c>
-      <c r="I15" s="164" t="s">
-        <v>818</v>
-      </c>
-      <c r="J15" s="165" t="s">
-        <v>166</v>
-      </c>
-      <c r="K15" s="164" t="s">
-        <v>694</v>
       </c>
       <c r="L15" s="164" t="s">
         <v>217</v>
@@ -38980,7 +38997,7 @@
         <v>217</v>
       </c>
       <c r="H20" s="164" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I20" s="165" t="s">
         <v>166</v>
@@ -39220,13 +39237,13 @@
         <v>166</v>
       </c>
       <c r="CJ20" s="164" t="s">
+        <v>695</v>
+      </c>
+      <c r="CK20" s="164" t="s">
         <v>696</v>
       </c>
-      <c r="CK20" s="164" t="s">
+      <c r="CL20" s="164" t="s">
         <v>697</v>
-      </c>
-      <c r="CL20" s="164" t="s">
-        <v>698</v>
       </c>
       <c r="CM20" s="165" t="s">
         <v>166</v>
@@ -39241,7 +39258,7 @@
         <v>166</v>
       </c>
       <c r="CQ20" s="164" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="CR20" s="165" t="s">
         <v>166</v>
@@ -39406,10 +39423,10 @@
         <v>217</v>
       </c>
       <c r="H21" s="164" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="I21" s="164" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="J21" s="164" t="s">
         <v>376</v>
@@ -39502,7 +39519,7 @@
         <v>166</v>
       </c>
       <c r="AN21" s="164" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="AO21" s="174" t="s">
         <v>217</v>
@@ -39646,13 +39663,13 @@
         <v>166</v>
       </c>
       <c r="CJ21" s="164" t="s">
+        <v>699</v>
+      </c>
+      <c r="CK21" s="164" t="s">
+        <v>696</v>
+      </c>
+      <c r="CL21" s="164" t="s">
         <v>700</v>
-      </c>
-      <c r="CK21" s="164" t="s">
-        <v>697</v>
-      </c>
-      <c r="CL21" s="164" t="s">
-        <v>701</v>
       </c>
       <c r="CM21" s="165" t="s">
         <v>166</v>
@@ -39667,7 +39684,7 @@
         <v>166</v>
       </c>
       <c r="CQ21" s="164" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="CR21" s="165" t="s">
         <v>166</v>
@@ -39832,7 +39849,7 @@
         <v>217</v>
       </c>
       <c r="H22" s="164" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I22" s="165" t="s">
         <v>166</v>
@@ -39847,7 +39864,7 @@
         <v>389</v>
       </c>
       <c r="M22" s="164" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="N22" s="164" t="s">
         <v>390</v>
@@ -40072,13 +40089,13 @@
         <v>166</v>
       </c>
       <c r="CJ22" s="164" t="s">
+        <v>699</v>
+      </c>
+      <c r="CK22" s="164" t="s">
+        <v>696</v>
+      </c>
+      <c r="CL22" s="164" t="s">
         <v>700</v>
-      </c>
-      <c r="CK22" s="164" t="s">
-        <v>697</v>
-      </c>
-      <c r="CL22" s="164" t="s">
-        <v>701</v>
       </c>
       <c r="CM22" s="165" t="s">
         <v>166</v>
@@ -40093,7 +40110,7 @@
         <v>166</v>
       </c>
       <c r="CQ22" s="164" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="CR22" s="165" t="s">
         <v>166</v>
@@ -40258,7 +40275,7 @@
         <v>218</v>
       </c>
       <c r="H23" s="164" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I23" s="165" t="s">
         <v>166</v>
@@ -40273,7 +40290,7 @@
         <v>381</v>
       </c>
       <c r="M23" s="164" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="N23" s="164" t="s">
         <v>244</v>
@@ -40531,7 +40548,7 @@
         <v>166</v>
       </c>
       <c r="CU23" s="164" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="CV23" s="165" t="s">
         <v>166</v>
@@ -40673,7 +40690,7 @@
     </row>
     <row r="26" spans="1:142">
       <c r="B26" s="168" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="27" spans="1:142">
@@ -40756,7 +40773,7 @@
         <v>492</v>
       </c>
       <c r="AB27" s="162" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="28" spans="1:142" s="166" customFormat="1">
@@ -40789,7 +40806,7 @@
         <v>166</v>
       </c>
       <c r="K28" s="165" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="L28" s="164" t="s">
         <v>217</v>
@@ -41032,7 +41049,7 @@
         <v>166</v>
       </c>
       <c r="Z29" s="164" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="AA29" s="164" t="s">
         <v>217</v>
@@ -41176,7 +41193,7 @@
         <v>513</v>
       </c>
       <c r="H30" s="164" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="I30" s="164" t="s">
         <v>514</v>
@@ -41377,7 +41394,7 @@
         <v>513</v>
       </c>
       <c r="I31" s="164" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="J31" s="165" t="s">
         <v>166</v>
@@ -41557,12 +41574,12 @@
         <v>238</v>
       </c>
       <c r="B33" s="167" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="34" spans="1:18">
       <c r="B34" s="168" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="35" spans="1:18">
@@ -41582,10 +41599,10 @@
         <v>18</v>
       </c>
       <c r="G35" s="162" t="s">
+        <v>719</v>
+      </c>
+      <c r="H35" s="162" t="s">
         <v>720</v>
-      </c>
-      <c r="H35" s="162" t="s">
-        <v>721</v>
       </c>
       <c r="I35" s="162" t="s">
         <v>404</v>
@@ -41597,25 +41614,25 @@
         <v>429</v>
       </c>
       <c r="L35" s="162" t="s">
+        <v>721</v>
+      </c>
+      <c r="M35" s="162" t="s">
         <v>722</v>
       </c>
-      <c r="M35" s="162" t="s">
+      <c r="N35" s="162" t="s">
         <v>723</v>
       </c>
-      <c r="N35" s="162" t="s">
+      <c r="O35" s="162" t="s">
         <v>724</v>
-      </c>
-      <c r="O35" s="162" t="s">
-        <v>725</v>
       </c>
       <c r="P35" s="162" t="s">
         <v>462</v>
       </c>
       <c r="Q35" s="162" t="s">
+        <v>725</v>
+      </c>
+      <c r="R35" s="162" t="s">
         <v>726</v>
-      </c>
-      <c r="R35" s="162" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="36" spans="1:18">
@@ -41635,7 +41652,7 @@
         <v>166</v>
       </c>
       <c r="G36" s="164" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="H36" s="164">
         <v>2</v>
@@ -41650,22 +41667,22 @@
         <v>2</v>
       </c>
       <c r="L36" s="164" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M36" s="164" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="N36" s="164" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="O36" s="164" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="P36" s="164">
         <v>1</v>
       </c>
       <c r="Q36" s="164" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="R36" s="165" t="s">
         <v>166</v>
@@ -41676,17 +41693,17 @@
         <v>238</v>
       </c>
       <c r="B38" s="167" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="39" spans="1:18">
       <c r="B39" s="168" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="40" spans="1:18">
       <c r="B40" s="163" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C40" s="162" t="s">
         <v>16</v>
@@ -41701,19 +41718,19 @@
         <v>18</v>
       </c>
       <c r="G40" s="162" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="H40" s="162" t="s">
         <v>89</v>
       </c>
       <c r="I40" s="162" t="s">
+        <v>842</v>
+      </c>
+      <c r="J40" s="162" t="s">
         <v>843</v>
       </c>
-      <c r="J40" s="162" t="s">
+      <c r="K40" s="162" t="s">
         <v>844</v>
-      </c>
-      <c r="K40" s="162" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="41" spans="1:18">
